--- a/data/trans_camb/P14B34-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P14B34-Edad-trans_camb.xlsx
@@ -769,10 +769,10 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.7233615973136751</v>
+        <v>0.7840818624285194</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.199170021759881</v>
+        <v>1.104559457939218</v>
       </c>
     </row>
     <row r="19">
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1574086889333374</v>
+        <v>0.1086280343753987</v>
       </c>
     </row>
     <row r="24">
@@ -861,10 +861,10 @@
       </c>
       <c r="C24" s="5" t="inlineStr"/>
       <c r="D24" s="5" t="n">
-        <v>1.121485061633385</v>
+        <v>1.11222348066541</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.209742914557023</v>
+        <v>1.175943368517502</v>
       </c>
     </row>
     <row r="25">
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.8784988582378037</v>
+        <v>0.9163875275311149</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.4413687634484431</v>
+        <v>0.4557568932014849</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.3657895278166239</v>
+        <v>0.3562718200325087</v>
       </c>
     </row>
     <row r="30">
@@ -954,13 +954,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.499402513309997</v>
+        <v>3.608783611347053</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.589900496917875</v>
+        <v>2.805511584589055</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.838353498474834</v>
+        <v>1.702316267295927</v>
       </c>
     </row>
     <row r="31">
@@ -1026,7 +1026,7 @@
         <v>3.535316543796469</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2.335854180488303</v>
+        <v>2.335854180488304</v>
       </c>
     </row>
     <row r="35">
@@ -1037,13 +1037,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>5.02354150700337</v>
+        <v>5.287197748297009</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>1.941678920004313</v>
+        <v>1.748229618355766</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1.336455061459918</v>
+        <v>1.238164883662838</v>
       </c>
     </row>
     <row r="36">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>11.5253479716168</v>
+        <v>11.41482377030343</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>6.675672922359113</v>
+        <v>6.225548028848888</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3.842494916832515</v>
+        <v>3.760093004695868</v>
       </c>
     </row>
     <row r="37">
@@ -1137,13 +1137,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>6.534996831846324</v>
+        <v>6.180536145320946</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>4.26567826477334</v>
+        <v>4.230738697558603</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>3.748401510173669</v>
+        <v>3.776936894199992</v>
       </c>
     </row>
     <row r="42">
@@ -1154,13 +1154,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>14.7473658889093</v>
+        <v>14.97857481679555</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>9.604668858325235</v>
+        <v>9.861365222787468</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>7.845240821297191</v>
+        <v>8.036780657278493</v>
       </c>
     </row>
     <row r="43">
@@ -1237,13 +1237,13 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>1.301033410330223</v>
+        <v>1.270930758254853</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>0.795663170362374</v>
+        <v>0.8124139005835729</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>0.7455330612547365</v>
+        <v>0.7384729388097846</v>
       </c>
     </row>
     <row r="48">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>2.171424533858039</v>
+        <v>2.250756487543995</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>1.504343890446197</v>
+        <v>1.500994374347743</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1.342369776924862</v>
+        <v>1.338683341780855</v>
       </c>
     </row>
     <row r="49">
